--- a/Resources/ExelFiles/User Details.xlsx
+++ b/Resources/ExelFiles/User Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\subhash\Desktop\MySampleMavenProject\Resources\ExelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9014AC4C-58AD-4427-88CF-6B52F8883D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174C3E8D-C9AB-4B35-8F4A-41A69992BA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{227E3816-751E-4988-9932-B49497DBE83D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>123456r</t>
+  </si>
+  <si>
+    <t>sf</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7DFF3C-25C3-453D-8A58-4CE269F8DA7F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +426,7 @@
     <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,12 +434,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
